--- a/Modelos em Python/30 dias a frente(7, 1, 7) (2, 1, 0, 12) 24h Erros validação.xlsx
+++ b/Modelos em Python/30 dias a frente(7, 1, 7) (2, 1, 0, 12) 24h Erros validação.xlsx
@@ -601,13 +601,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>13.68904066869646</v>
+        <v>13.48558334565053</v>
       </c>
       <c r="C11" t="n">
-        <v>46.45847351975655</v>
+        <v>45.7386138302826</v>
       </c>
       <c r="D11" t="n">
-        <v>59.32866416999403</v>
+        <v>58.58035899345987</v>
       </c>
     </row>
     <row r="12">
